--- a/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_10_beg.xlsx
+++ b/story/Activity Story 活动剧情/act5d0 Code of Brawl 喧闹法则 喧騒の掟/level_act5d0_10_beg.xlsx
@@ -1104,7 +1104,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rat King"]   Do you recall those Siracusans who came looking for us some time ago? The rest of their "Family" has since come to Lungmen.
+    <t xml:space="preserve">[name="Rat King"]   Do you recall those Siracusans who came looking for us some time ago? The rest of their 'Family' has since come to Lungmen.
 </t>
   </si>
   <si>
@@ -1164,7 +1164,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gambino"]   Are you tryin' to tell us we can't win? Mr. "Rat King"?
+    <t xml:space="preserve">[name="Gambino"]   Are you tryin' to tell us we can't win? Mr. 'Rat King'?
 </t>
   </si>
   <si>
@@ -1508,7 +1508,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rat King"]   Yes. "Lungmen" can.
+    <t xml:space="preserve">[name="Rat King"]   Yes. 'Lungmen' can.
 </t>
   </si>
   <si>
